--- a/tracking_tables/excluded_structures_tracking_table_template.xlsx
+++ b/tracking_tables/excluded_structures_tracking_table_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cwffcf.sharepoint.com/sites/Conservation-General/Shared Documents/Freshwater/Fish Passage/General WCRP/Internal WCRP workshop (2023)/Table and list templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{8E96DE89-45B0-430D-ACC1-92D82D1ACB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63DC7030-721F-48B0-8C99-7549109C8D20}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{8E96DE89-45B0-430D-ACC1-92D82D1ACB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{390A770E-7BB7-40BB-B65F-24B759D0D157}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDE771D9-C9F3-45D6-96B6-E347CE1CFA3D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDE771D9-C9F3-45D6-96B6-E347CE1CFA3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Excluded structures" sheetId="5" r:id="rId1"/>
@@ -36,33 +36,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={DBF02202-B046-45AA-928C-41F2B398AE38}</author>
-    <author>tc={111D9BF2-7876-4428-8542-217249C83415}</author>
-  </authors>
-  <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{DBF02202-B046-45AA-928C-41F2B398AE38}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    once we confirm our terminology, we should update this to reflect those changes. I believe we landed on "key habitat" so this would be no key habitat upstream</t>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="1" shapeId="0" xr:uid="{111D9BF2-7876-4428-8542-217249C83415}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Is there a case where there is no water/stream here ? This would technically be captured by "no key habitat upstream" but wondering if we need to specify situations where the stream isn't actually present anymore</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
@@ -96,31 +69,31 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Supporting links</t>
+  </si>
+  <si>
     <t>Passable</t>
   </si>
   <si>
+    <t>No structure</t>
+  </si>
+  <si>
+    <t>No key upstream habitat</t>
+  </si>
+  <si>
+    <t>No structure/key upstream habitat</t>
+  </si>
+  <si>
     <t>Imagery review</t>
   </si>
   <si>
-    <t>No structure</t>
-  </si>
-  <si>
     <t>Field assessment</t>
   </si>
   <si>
-    <t>No suitable upstream habitat</t>
-  </si>
-  <si>
     <t>Local knowledge</t>
   </si>
   <si>
-    <t>No structure/suitable upstream habitat</t>
-  </si>
-  <si>
     <t>Informal assessment</t>
-  </si>
-  <si>
-    <t>Supporting links</t>
   </si>
 </sst>
 </file>
@@ -137,13 +110,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -180,6 +153,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,9 +178,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Fielding Montgomery" id="{99A25C25-CB7F-48CA-BD57-6FB272204657}" userId="S::fieldingm@cwf-fcf.org::20ab6a0b-133e-45bc-a4ff-27d36bb47b06" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,24 +476,13 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A4" dT="2024-02-15T14:55:57.17" personId="{99A25C25-CB7F-48CA-BD57-6FB272204657}" id="{DBF02202-B046-45AA-928C-41F2B398AE38}">
-    <text>once we confirm our terminology, we should update this to reflect those changes. I believe we landed on "key habitat" so this would be no key habitat upstream</text>
-  </threadedComment>
-  <threadedComment ref="A6" dT="2024-02-15T14:57:45.54" personId="{99A25C25-CB7F-48CA-BD57-6FB272204657}" id="{111D9BF2-7876-4428-8542-217249C83415}">
-    <text>Is there a case where there is no water/stream here ? This would technically be captured by "no key habitat upstream" but wondering if we need to specify situations where the stream isn't actually present anymore</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B487CB3-A96E-4BA8-A6AF-7460CE78FFCD}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -532,41 +493,42 @@
     <col min="8" max="8" width="27.54296875" customWidth="1"/>
     <col min="9" max="9" width="20.81640625" customWidth="1"/>
     <col min="10" max="10" width="49.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -718,17 +680,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D258955F-A5E9-4969-88B7-06BEF31E3DF5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70431828-8FD1-4BDB-9128-CF1406709346}">
           <x14:formula1>
-            <xm:f>Categories!$A$2:$A$7</xm:f>
+            <xm:f>Categories!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H25</xm:sqref>
+          <xm:sqref>H2:H50</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6FCB0AED-D10D-4537-AA6A-7CB63BD75F24}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{134C7623-9EC2-444B-B8FE-ABAE94795AC8}">
           <x14:formula1>
-            <xm:f>Categories!$B$2:$B$7</xm:f>
+            <xm:f>Categories!$B$7:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I25</xm:sqref>
+          <xm:sqref>I2:I50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -737,11 +699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F80826F-85FC-4858-A945-3780C2B98AFA}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F80826F-85FC-4858-A945-3780C2B98AFA}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -753,46 +715,54 @@
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -819,15 +789,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F2D6C6860AC114F8559403465E77CC4" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4a456bade4bd732af03e24b44c1c2ca9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="411171ba-2276-4762-a69b-ae0a1d76a912" xmlns:ns3="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="630d1ab75a49860de5f9d74b152c7650" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1105,6 +1066,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA053DEA-D046-4166-9D26-72F5B44C5989}">
   <ds:schemaRefs>
@@ -1118,14 +1088,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A98FE5F-C603-4C27-8323-46B05BB00F7D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B063947-0EE7-419B-A8E4-FA2F4F0C123E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1143,4 +1105,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A98FE5F-C603-4C27-8323-46B05BB00F7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tracking_tables/excluded_structures_tracking_table_template.xlsx
+++ b/tracking_tables/excluded_structures_tracking_table_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cwffcf.sharepoint.com/sites/Conservation-General/Shared Documents/Freshwater/Fish Passage/General WCRP/Internal WCRP workshop (2023)/Table and list templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CABD\GitHub\Canadian-Wildlife-Federation\wcrp-github-training\tracking_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{8E96DE89-45B0-430D-ACC1-92D82D1ACB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{390A770E-7BB7-40BB-B65F-24B759D0D157}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C90270-3FE6-4B5F-B32E-8DC128AD42F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDE771D9-C9F3-45D6-96B6-E347CE1CFA3D}"/>
+    <workbookView xWindow="2020" yWindow="380" windowWidth="15980" windowHeight="8900" xr2:uid="{BDE771D9-C9F3-45D6-96B6-E347CE1CFA3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Excluded structures" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Internal Name</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Informal assessment</t>
+  </si>
+  <si>
+    <t>for testing</t>
   </si>
 </sst>
 </file>
@@ -175,10 +178,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,9 +479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B487CB3-A96E-4BA8-A6AF-7460CE78FFCD}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -666,14 +665,40 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -767,25 +792,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="411171ba-2276-4762-a69b-ae0a1d76a912" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="411171ba-2276-4762-a69b-ae0a1d76a912" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="411171ba-2276-4762-a69b-ae0a1d76a912">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,22 +1079,31 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="411171ba-2276-4762-a69b-ae0a1d76a912" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="411171ba-2276-4762-a69b-ae0a1d76a912" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="411171ba-2276-4762-a69b-ae0a1d76a912">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA053DEA-D046-4166-9D26-72F5B44C5989}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A98FE5F-C603-4C27-8323-46B05BB00F7D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9"/>
-    <ds:schemaRef ds:uri="411171ba-2276-4762-a69b-ae0a1d76a912"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1108,9 +1129,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A98FE5F-C603-4C27-8323-46B05BB00F7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA053DEA-D046-4166-9D26-72F5B44C5989}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9"/>
+    <ds:schemaRef ds:uri="411171ba-2276-4762-a69b-ae0a1d76a912"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tracking_tables/excluded_structures_tracking_table_template.xlsx
+++ b/tracking_tables/excluded_structures_tracking_table_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CABD\GitHub\Canadian-Wildlife-Federation\wcrp-github-training\tracking_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cwffcf.sharepoint.com/sites/Conservation-General/Shared Documents/Freshwater/Fish Passage/General WCRP/Internal WCRP workshop (2023)/Table and list templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C90270-3FE6-4B5F-B32E-8DC128AD42F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{8E96DE89-45B0-430D-ACC1-92D82D1ACB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{390A770E-7BB7-40BB-B65F-24B759D0D157}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="380" windowWidth="15980" windowHeight="8900" xr2:uid="{BDE771D9-C9F3-45D6-96B6-E347CE1CFA3D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDE771D9-C9F3-45D6-96B6-E347CE1CFA3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Excluded structures" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Internal Name</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Informal assessment</t>
-  </si>
-  <si>
-    <t>for testing</t>
   </si>
 </sst>
 </file>
@@ -178,6 +175,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,9 +480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B487CB3-A96E-4BA8-A6AF-7460CE78FFCD}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -665,40 +666,14 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -792,12 +767,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="411171ba-2276-4762-a69b-ae0a1d76a912" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="411171ba-2276-4762-a69b-ae0a1d76a912" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="411171ba-2276-4762-a69b-ae0a1d76a912">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1079,31 +1067,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="411171ba-2276-4762-a69b-ae0a1d76a912" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="411171ba-2276-4762-a69b-ae0a1d76a912" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="411171ba-2276-4762-a69b-ae0a1d76a912">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A98FE5F-C603-4C27-8323-46B05BB00F7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA053DEA-D046-4166-9D26-72F5B44C5989}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9"/>
+    <ds:schemaRef ds:uri="411171ba-2276-4762-a69b-ae0a1d76a912"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1129,13 +1108,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA053DEA-D046-4166-9D26-72F5B44C5989}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A98FE5F-C603-4C27-8323-46B05BB00F7D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9"/>
-    <ds:schemaRef ds:uri="411171ba-2276-4762-a69b-ae0a1d76a912"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tracking_tables/excluded_structures_tracking_table_template.xlsx
+++ b/tracking_tables/excluded_structures_tracking_table_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cwffcf.sharepoint.com/sites/Conservation-General/Shared Documents/Freshwater/Fish Passage/General WCRP/Internal WCRP workshop (2023)/Table and list templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CABD\GitHub\Canadian-Wildlife-Federation\wcrp-github-training\tracking_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{8E96DE89-45B0-430D-ACC1-92D82D1ACB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{390A770E-7BB7-40BB-B65F-24B759D0D157}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1529FB-9581-4A88-A15D-940AC4EED058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDE771D9-C9F3-45D6-96B6-E347CE1CFA3D}"/>
+    <workbookView xWindow="2020" yWindow="380" windowWidth="15980" windowHeight="8900" xr2:uid="{BDE771D9-C9F3-45D6-96B6-E347CE1CFA3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Excluded structures" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Internal Name</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Informal assessment</t>
+  </si>
+  <si>
+    <t>for demo</t>
   </si>
 </sst>
 </file>
@@ -175,10 +178,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,9 +479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B487CB3-A96E-4BA8-A6AF-7460CE78FFCD}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -532,13 +531,39 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -767,25 +792,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="411171ba-2276-4762-a69b-ae0a1d76a912" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="411171ba-2276-4762-a69b-ae0a1d76a912" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="411171ba-2276-4762-a69b-ae0a1d76a912">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,22 +1079,31 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="411171ba-2276-4762-a69b-ae0a1d76a912" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="411171ba-2276-4762-a69b-ae0a1d76a912" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="411171ba-2276-4762-a69b-ae0a1d76a912">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA053DEA-D046-4166-9D26-72F5B44C5989}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A98FE5F-C603-4C27-8323-46B05BB00F7D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9"/>
-    <ds:schemaRef ds:uri="411171ba-2276-4762-a69b-ae0a1d76a912"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1108,9 +1129,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A98FE5F-C603-4C27-8323-46B05BB00F7D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA053DEA-D046-4166-9D26-72F5B44C5989}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9"/>
+    <ds:schemaRef ds:uri="411171ba-2276-4762-a69b-ae0a1d76a912"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tracking_tables/excluded_structures_tracking_table_template.xlsx
+++ b/tracking_tables/excluded_structures_tracking_table_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CABD\GitHub\Canadian-Wildlife-Federation\wcrp-github-training\tracking_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nWright\Documents\GitHub\wcrp-github-training\tracking_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1529FB-9581-4A88-A15D-940AC4EED058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F207639A-A570-4A10-AACD-6D7B403B5DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="380" windowWidth="15980" windowHeight="8900" xr2:uid="{BDE771D9-C9F3-45D6-96B6-E347CE1CFA3D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDE771D9-C9F3-45D6-96B6-E347CE1CFA3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Excluded structures" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Internal Name</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Informal assessment</t>
-  </si>
-  <si>
-    <t>for demo</t>
   </si>
 </sst>
 </file>
@@ -479,9 +476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B487CB3-A96E-4BA8-A6AF-7460CE78FFCD}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -531,39 +528,15 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -792,15 +765,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F2D6C6860AC114F8559403465E77CC4" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4a456bade4bd732af03e24b44c1c2ca9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="411171ba-2276-4762-a69b-ae0a1d76a912" xmlns:ns3="b7b7ce10-0fd6-45e3-a641-e6fecf0ad4e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="630d1ab75a49860de5f9d74b152c7650" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1078,6 +1042,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1101,14 +1074,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A98FE5F-C603-4C27-8323-46B05BB00F7D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B063947-0EE7-419B-A8E4-FA2F4F0C123E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1128,6 +1093,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A98FE5F-C603-4C27-8323-46B05BB00F7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA053DEA-D046-4166-9D26-72F5B44C5989}">
   <ds:schemaRefs>
